--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>847501.6127419482</v>
+        <v>846854.6402007648</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60.24410049029193</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417414</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="W11" t="n">
-        <v>57.67900616287453</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087824</v>
+        <v>6.191472723087938</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964391</v>
+        <v>13.45870707964403</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998883</v>
+        <v>31.53932278998894</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362328</v>
+        <v>0.4251038644363412</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938138</v>
+        <v>9.02867510693825</v>
       </c>
       <c r="U13" t="n">
-        <v>67.5913472788246</v>
+        <v>67.59134727882471</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692794</v>
+        <v>34.48632710692806</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740432</v>
+        <v>67.64255292740444</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298044</v>
+        <v>7.690335972298158</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570102</v>
+        <v>0.2986499077571239</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>68.39702598806987</v>
+        <v>24.68690330538603</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417442</v>
+        <v>2.565094327417524</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748827</v>
+        <v>32.99210285748836</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.68690330538612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087938</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964403</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998894</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362612</v>
+        <v>0.4251038644363412</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938167</v>
+        <v>9.02867510693825</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882471</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692806</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740444</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298158</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077571239</v>
       </c>
     </row>
     <row r="17">
@@ -2087,13 +2087,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E20" t="n">
-        <v>32.58791875473287</v>
+        <v>32.58791875473285</v>
       </c>
       <c r="F20" t="n">
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283403</v>
+        <v>193.3941876283402</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U34" t="n">
         <v>65.0262529514072</v>
@@ -3278,7 +3278,7 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H35" t="n">
         <v>90.44712491406725</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325529048</v>
       </c>
       <c r="V35" t="n">
         <v>85.39850503054893</v>
@@ -3515,7 +3515,7 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H38" t="n">
         <v>90.44712491406725</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325529048</v>
       </c>
       <c r="V38" t="n">
         <v>85.39850503054893</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
@@ -3746,16 +3746,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E41" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W41" t="n">
         <v>107.3954005085842</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.6475721559545</v>
+        <v>66.32438883691626</v>
       </c>
       <c r="C11" t="n">
-        <v>143.6475721559545</v>
+        <v>66.32438883691626</v>
       </c>
       <c r="D11" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G11" t="n">
-        <v>74.55966711750007</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
-        <v>5.471762079045594</v>
+        <v>35.56706215439182</v>
       </c>
       <c r="J11" t="n">
-        <v>5.471762079045594</v>
+        <v>35.56706215439182</v>
       </c>
       <c r="K11" t="n">
-        <v>65.39303325931952</v>
+        <v>35.56706215439182</v>
       </c>
       <c r="L11" t="n">
-        <v>65.39303325931952</v>
+        <v>35.56706215439182</v>
       </c>
       <c r="M11" t="n">
-        <v>133.1060889875088</v>
+        <v>98.18404701233406</v>
       </c>
       <c r="N11" t="n">
-        <v>147.4925707399813</v>
+        <v>98.18404701233406</v>
       </c>
       <c r="O11" t="n">
-        <v>215.2056264681705</v>
+        <v>165.8971027405233</v>
       </c>
       <c r="P11" t="n">
-        <v>215.2056264681705</v>
+        <v>165.8971027405233</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2056264681705</v>
+        <v>215.2056264681706</v>
       </c>
       <c r="R11" t="n">
         <v>251.0794834348001</v>
@@ -5069,22 +5069,22 @@
         <v>273.5881039522797</v>
       </c>
       <c r="T11" t="n">
-        <v>270.997099581151</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U11" t="n">
-        <v>270.997099581151</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V11" t="n">
-        <v>201.9091945426965</v>
+        <v>204.5001989138252</v>
       </c>
       <c r="W11" t="n">
-        <v>143.6475721559545</v>
+        <v>135.4122938753707</v>
       </c>
       <c r="X11" t="n">
-        <v>143.6475721559545</v>
+        <v>66.32438883691626</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.6475721559545</v>
+        <v>66.32438883691626</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M12" t="n">
-        <v>5.471762079045594</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="N12" t="n">
-        <v>5.471762079045594</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="O12" t="n">
-        <v>5.471762079045594</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="P12" t="n">
-        <v>5.471762079045594</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.471762079045594</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="R12" t="n">
-        <v>5.471762079045594</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="S12" t="n">
-        <v>36.36043520596188</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452092</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291706</v>
+        <v>50.92431750291728</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711512</v>
+        <v>37.32966388711523</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.45443122367973</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C13" t="n">
-        <v>94.0567675422005</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D13" t="n">
-        <v>94.0567675422005</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E13" t="n">
-        <v>94.0567675422005</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F13" t="n">
-        <v>94.0567675422005</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="G13" t="n">
-        <v>94.0567675422005</v>
+        <v>123.4374680997844</v>
       </c>
       <c r="H13" t="n">
-        <v>126.8122337898324</v>
+        <v>123.4374680997844</v>
       </c>
       <c r="I13" t="n">
-        <v>126.8122337898324</v>
+        <v>123.4374680997844</v>
       </c>
       <c r="J13" t="n">
-        <v>126.8122337898324</v>
+        <v>123.4374680997844</v>
       </c>
       <c r="K13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="L13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="M13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="N13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="O13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180217</v>
+        <v>141.0223128486177</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751568</v>
+        <v>194.0958916751574</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297647</v>
+        <v>184.9760178297653</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693358</v>
+        <v>116.7019296693363</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395405</v>
+        <v>81.86725582395439</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617191</v>
+        <v>13.54144478617214</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537524</v>
+        <v>5.773428652537637</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.7354771944089</v>
+        <v>30.40802804408199</v>
       </c>
       <c r="C14" t="n">
-        <v>212.7354771944089</v>
+        <v>30.40802804408199</v>
       </c>
       <c r="D14" t="n">
-        <v>212.7354771944089</v>
+        <v>30.40802804408199</v>
       </c>
       <c r="E14" t="n">
-        <v>143.6475721559544</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6475721559544</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G14" t="n">
-        <v>74.55966711750001</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H14" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439187</v>
+        <v>35.56706215439182</v>
       </c>
       <c r="J14" t="n">
-        <v>35.56706215439187</v>
+        <v>35.56706215439182</v>
       </c>
       <c r="K14" t="n">
-        <v>35.56706215439187</v>
+        <v>95.48833333466573</v>
       </c>
       <c r="L14" t="n">
-        <v>35.56706215439187</v>
+        <v>95.48833333466573</v>
       </c>
       <c r="M14" t="n">
-        <v>98.18404701233382</v>
+        <v>163.201389062855</v>
       </c>
       <c r="N14" t="n">
-        <v>165.897102740523</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="O14" t="n">
-        <v>165.897102740523</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="P14" t="n">
-        <v>165.897102740523</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2056264681704</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834347999</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811507</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="U14" t="n">
         <v>237.6717431594454</v>
       </c>
       <c r="V14" t="n">
-        <v>237.6717431594454</v>
+        <v>168.5838381209909</v>
       </c>
       <c r="W14" t="n">
-        <v>237.6717431594454</v>
+        <v>99.49593308253645</v>
       </c>
       <c r="X14" t="n">
-        <v>237.6717431594454</v>
+        <v>30.40802804408199</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.7354771944089</v>
+        <v>30.40802804408199</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452126</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291728</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711523</v>
       </c>
       <c r="W15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D16" t="n">
-        <v>59.09917806164347</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E16" t="n">
-        <v>59.09917806164347</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F16" t="n">
-        <v>59.09917806164347</v>
+        <v>59.09917806164401</v>
       </c>
       <c r="G16" t="n">
-        <v>59.09917806164347</v>
+        <v>59.09917806164401</v>
       </c>
       <c r="H16" t="n">
-        <v>59.09917806164347</v>
+        <v>59.09917806164401</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09917806164347</v>
+        <v>59.09917806164401</v>
       </c>
       <c r="J16" t="n">
-        <v>59.09917806164347</v>
+        <v>59.09917806164401</v>
       </c>
       <c r="K16" t="n">
-        <v>59.09917806164347</v>
+        <v>126.8122337898332</v>
       </c>
       <c r="L16" t="n">
-        <v>59.09917806164347</v>
+        <v>126.8122337898332</v>
       </c>
       <c r="M16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="O16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180224</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751574</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297653</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693363</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395439</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617214</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537548</v>
+        <v>5.773428652537637</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278992</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436688</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345337</v>
+        <v>160.2504026345338</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832883</v>
+        <v>127.3333129832885</v>
       </c>
       <c r="F17" t="n">
         <v>69.9961953267368</v>
       </c>
       <c r="G17" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
-        <v>22.25055491761734</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I17" t="n">
-        <v>22.25055491761734</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="J17" t="n">
-        <v>22.25055491761734</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="K17" t="n">
-        <v>22.25055491761734</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="L17" t="n">
-        <v>22.25055491761734</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="M17" t="n">
-        <v>22.25055491761734</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="N17" t="n">
-        <v>22.25055491761734</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="O17" t="n">
-        <v>22.25055491761734</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="P17" t="n">
-        <v>22.25055491761734</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.44893676771196</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R17" t="n">
-        <v>138.1619924959011</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="S17" t="n">
-        <v>138.1619924959011</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8750482240903</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U17" t="n">
-        <v>273.5881039522795</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152948</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994552</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278996</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436692</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345341</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
         <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673677</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761734</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I20" t="n">
-        <v>22.25055491761734</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J20" t="n">
-        <v>22.25055491761734</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K20" t="n">
-        <v>22.25055491761734</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L20" t="n">
-        <v>22.25055491761734</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M20" t="n">
-        <v>22.25055491761734</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="N20" t="n">
-        <v>22.25055491761734</v>
+        <v>140.897873535424</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67201024445708</v>
+        <v>140.897873535424</v>
       </c>
       <c r="P20" t="n">
-        <v>116.3850659726463</v>
+        <v>140.897873535424</v>
       </c>
       <c r="Q20" t="n">
-        <v>184.0981217008355</v>
+        <v>140.897873535424</v>
       </c>
       <c r="R20" t="n">
-        <v>184.0981217008355</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="S20" t="n">
-        <v>184.0981217008355</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008355</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290246</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152953</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994557</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278992</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436689</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I23" t="n">
-        <v>70.44893676771198</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J23" t="n">
-        <v>70.44893676771198</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="K23" t="n">
-        <v>70.44893676771198</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="L23" t="n">
-        <v>70.44893676771198</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="M23" t="n">
-        <v>138.1619924959012</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="N23" t="n">
-        <v>205.8750482240904</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="O23" t="n">
-        <v>205.8750482240904</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="P23" t="n">
-        <v>205.8750482240904</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.8750482240904</v>
+        <v>208.6109292636133</v>
       </c>
       <c r="R23" t="n">
-        <v>273.5881039522796</v>
+        <v>208.6109292636133</v>
       </c>
       <c r="S23" t="n">
-        <v>273.5881039522796</v>
+        <v>208.6109292636133</v>
       </c>
       <c r="T23" t="n">
-        <v>273.5881039522796</v>
+        <v>208.6109292636133</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X23" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C26" t="n">
         <v>832.5759473847833</v>
@@ -6221,34 +6221,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034309</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J26" t="n">
-        <v>322.88141175434</v>
+        <v>116.1447933136834</v>
       </c>
       <c r="K26" t="n">
-        <v>659.5277051494568</v>
+        <v>512.3456246613719</v>
       </c>
       <c r="L26" t="n">
-        <v>720.3530198849631</v>
+        <v>941.3206251094347</v>
       </c>
       <c r="M26" t="n">
-        <v>794.2528858167403</v>
+        <v>941.3206251094347</v>
       </c>
       <c r="N26" t="n">
-        <v>870.306498887285</v>
+        <v>1370.295625557497</v>
       </c>
       <c r="O26" t="n">
-        <v>941.3135306130828</v>
+        <v>1441.302657283296</v>
       </c>
       <c r="P26" t="n">
-        <v>1331.661853393831</v>
+        <v>1575.514884400008</v>
       </c>
       <c r="Q26" t="n">
-        <v>1602.10933488906</v>
+        <v>1627.157398790682</v>
       </c>
       <c r="R26" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6260,16 +6260,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V26" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W26" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y26" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q27" t="n">
         <v>78.59820166294284</v>
@@ -6345,10 +6345,10 @@
         <v>34.66464650085356</v>
       </c>
       <c r="X27" t="n">
-        <v>51.05260029301439</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.22312749316855</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="28">
@@ -6364,43 +6364,43 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D28" t="n">
-        <v>105.9541027560337</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E28" t="n">
-        <v>179.2541919291209</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>147.7853429745589</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678294</v>
+        <v>147.7853429745589</v>
       </c>
       <c r="Q28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923733</v>
       </c>
       <c r="C29" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F29" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,34 +6458,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J29" t="n">
-        <v>322.88141175434</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="K29" t="n">
-        <v>719.0822431020284</v>
+        <v>129.7601045247604</v>
       </c>
       <c r="L29" t="n">
-        <v>779.9075578375348</v>
+        <v>558.7351049728231</v>
       </c>
       <c r="M29" t="n">
-        <v>853.807423769312</v>
+        <v>632.6349709046004</v>
       </c>
       <c r="N29" t="n">
-        <v>853.807423769312</v>
+        <v>708.6885839751452</v>
       </c>
       <c r="O29" t="n">
-        <v>1165.628071392398</v>
+        <v>1008.975156514305</v>
       </c>
       <c r="P29" t="n">
-        <v>1555.976394173146</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q29" t="n">
-        <v>1607.61890856382</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R29" t="n">
-        <v>1713.693834815816</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6497,16 +6497,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="30">
@@ -6558,16 +6558,16 @@
         <v>34.66464650085356</v>
       </c>
       <c r="P30" t="n">
-        <v>34.66464650085356</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.66464650085356</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="T30" t="n">
         <v>78.59820166294284</v>
@@ -6634,13 +6634,13 @@
         <v>34.66464650085356</v>
       </c>
       <c r="O31" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="P31" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C32" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776835</v>
       </c>
       <c r="F32" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034309</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J32" t="n">
-        <v>322.88141175434</v>
+        <v>290.2466682948505</v>
       </c>
       <c r="K32" t="n">
-        <v>719.0822431020284</v>
+        <v>686.447499642539</v>
       </c>
       <c r="L32" t="n">
-        <v>719.0822431020284</v>
+        <v>1077.621191895421</v>
       </c>
       <c r="M32" t="n">
-        <v>719.0822431020284</v>
+        <v>1151.521057827199</v>
       </c>
       <c r="N32" t="n">
-        <v>795.1358561725731</v>
+        <v>1227.574670897743</v>
       </c>
       <c r="O32" t="n">
-        <v>999.6230254185839</v>
+        <v>1227.574670897743</v>
       </c>
       <c r="P32" t="n">
-        <v>1389.971348199332</v>
+        <v>1617.922993678492</v>
       </c>
       <c r="Q32" t="n">
-        <v>1660.418829694561</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R32" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="33">
@@ -6801,7 +6801,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S33" t="n">
         <v>78.59820166294284</v>
@@ -6865,13 +6865,13 @@
         <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>34.66464650085356</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678294</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678294</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="P34" t="n">
         <v>210.0320876678294</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767103</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585568</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303294</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G35" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379387</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K35" t="n">
-        <v>271.4636959260336</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L35" t="n">
-        <v>334.5451373144915</v>
+        <v>354.1874128840366</v>
       </c>
       <c r="M35" t="n">
-        <v>430.3434054687651</v>
+        <v>626.139890676144</v>
       </c>
       <c r="N35" t="n">
-        <v>528.2954207618061</v>
+        <v>724.0919059691851</v>
       </c>
       <c r="O35" t="n">
-        <v>889.5573654816798</v>
+        <v>724.0919059691851</v>
       </c>
       <c r="P35" t="n">
-        <v>970.480140551566</v>
+        <v>1085.353850689059</v>
       </c>
       <c r="Q35" t="n">
-        <v>1262.826024269291</v>
+        <v>1377.699734406784</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.799352743783</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867902</v>
@@ -6974,13 +6974,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.51157880286</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y36" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="37">
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="S37" t="n">
         <v>125.8253588837062</v>
@@ -7132,13 +7132,13 @@
         <v>72.58466259902526</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767103</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585564</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
         <v>600.7728648154978</v>
@@ -7160,34 +7160,34 @@
         <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398537</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379387</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J38" t="n">
-        <v>361.2064541202872</v>
+        <v>132.5714334571342</v>
       </c>
       <c r="K38" t="n">
-        <v>445.5655709072007</v>
+        <v>216.9305502440478</v>
       </c>
       <c r="L38" t="n">
-        <v>623.6991118051315</v>
+        <v>216.9305502440478</v>
       </c>
       <c r="M38" t="n">
-        <v>984.9610565250051</v>
+        <v>312.7288183983216</v>
       </c>
       <c r="N38" t="n">
-        <v>1082.913071818046</v>
+        <v>673.9907631181951</v>
       </c>
       <c r="O38" t="n">
-        <v>1175.81850576634</v>
+        <v>1035.252707838069</v>
       </c>
       <c r="P38" t="n">
         <v>1256.741280836226</v>
@@ -7196,7 +7196,7 @@
         <v>1330.487650170513</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
         <v>1437.745818867902</v>
@@ -7211,13 +7211,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821897</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="40">
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F40" t="n">
-        <v>51.13486298451697</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="S40" t="n">
         <v>125.8253588837062</v>
@@ -7369,13 +7369,13 @@
         <v>72.58466259902526</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585564</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D41" t="n">
         <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303293</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398542</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379385</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J41" t="n">
-        <v>327.6925463915652</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K41" t="n">
-        <v>544.1673040742138</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L41" t="n">
-        <v>626.8910210322165</v>
+        <v>354.1874128840366</v>
       </c>
       <c r="M41" t="n">
-        <v>722.6892891864901</v>
+        <v>715.4493576039101</v>
       </c>
       <c r="N41" t="n">
-        <v>820.6413044795311</v>
+        <v>1076.711302323784</v>
       </c>
       <c r="O41" t="n">
-        <v>1181.903249199405</v>
+        <v>1169.616736272078</v>
       </c>
       <c r="P41" t="n">
-        <v>1262.826024269291</v>
+        <v>1303.687746960346</v>
       </c>
       <c r="Q41" t="n">
-        <v>1262.826024269291</v>
+        <v>1377.434116294633</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.799352743783</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867902</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821899</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N43" t="n">
-        <v>46.01729741587248</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="O43" t="n">
-        <v>46.01729741587248</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="P43" t="n">
-        <v>46.01729741587248</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.3259016329355</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="R43" t="n">
-        <v>110.3259016329355</v>
+        <v>110.3259016329354</v>
       </c>
       <c r="S43" t="n">
-        <v>110.3259016329355</v>
+        <v>110.3259016329354</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.01729741587248</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585561</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154985</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303289</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398542</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379387</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J44" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K44" t="n">
+        <v>187.1045791391201</v>
+      </c>
+      <c r="L44" t="n">
         <v>548.3665238589937</v>
       </c>
-      <c r="L44" t="n">
-        <v>631.0902408169965</v>
-      </c>
       <c r="M44" t="n">
-        <v>726.8885089712701</v>
+        <v>644.1647920132674</v>
       </c>
       <c r="N44" t="n">
-        <v>824.8405242643111</v>
+        <v>704.5728171322463</v>
       </c>
       <c r="O44" t="n">
-        <v>1175.81850576634</v>
+        <v>1065.83476185212</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.741280836226</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="Q44" t="n">
         <v>1330.487650170513</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
@@ -7691,7 +7691,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821901</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M46" t="n">
         <v>125.8253588837062</v>
@@ -7843,13 +7843,13 @@
         <v>72.58466259902526</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>161.3945396537015</v>
+        <v>81.30719271909918</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.83614047967623</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>79.65527369999648</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>46.45394191905202</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>276.9551301320199</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>371.8683694066225</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>140.5292679447441</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>75.94732754477043</v>
       </c>
       <c r="Q26" t="n">
         <v>220.8075902863009</v>
@@ -9951,28 +9951,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.9084229006569</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175255</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>50.55975859789272</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725118</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,25 +10030,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.1932869030401</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>243.2460766639272</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>50.7787913130065</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,10 +10285,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>333.6852298155309</v>
       </c>
       <c r="M32" t="n">
-        <v>146.3687890634112</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8284217375889</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P32" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>44.50981262717283</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725118</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10507,22 +10507,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>177.9335450887208</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>306.8375543133682</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>283.1708784343306</v>
       </c>
       <c r="Q35" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10741,25 +10741,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>96.3735595352808</v>
+        <v>41.80898032793024</v>
       </c>
       <c r="M38" t="n">
-        <v>268.1451278440405</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>265.9696256836691</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>141.9856544730013</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>25.83966121134118</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10978,25 +10978,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>133.4501423189243</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>268.1451278440402</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>265.9696256836691</v>
       </c>
       <c r="O41" t="n">
-        <v>271.067182597555</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>263.8867723176224</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290983</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>279.6998261949092</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>281.3517452140108</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>260.6793409633686</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>185.58597297829</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725118</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.42711554701012</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313838</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189314</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D11" t="n">
-        <v>138.1547087945872</v>
+        <v>77.91060830429537</v>
       </c>
       <c r="E11" t="n">
-        <v>164.6680117952762</v>
+        <v>164.6680117952764</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205296</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676877</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H11" t="n">
-        <v>46.73479145795652</v>
+        <v>115.1318174460266</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.565094327417524</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748824</v>
+        <v>32.99210285748836</v>
       </c>
       <c r="V11" t="n">
-        <v>41.68617157443821</v>
+        <v>41.68617157443833</v>
       </c>
       <c r="W11" t="n">
-        <v>74.40108687766883</v>
+        <v>63.68306705247358</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308838</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.2370477912246</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189314</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945872</v>
+        <v>138.1547087945873</v>
       </c>
       <c r="E14" t="n">
-        <v>96.2709858072064</v>
+        <v>139.9811084898903</v>
       </c>
       <c r="F14" t="n">
         <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
-        <v>46.7347914579566</v>
+        <v>115.1318174460266</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443833</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247358</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308838</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.5501444858385</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835448.4909311048</v>
+        <v>835448.4909311046</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835448.4909311048</v>
+        <v>835448.4909311046</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835448.4909311048</v>
+        <v>835448.4909311046</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>629421.1927606987</v>
+        <v>629421.1927606985</v>
       </c>
       <c r="C2" t="n">
-        <v>629421.1927606985</v>
+        <v>629421.1927606988</v>
       </c>
       <c r="D2" t="n">
         <v>629421.1927606986</v>
@@ -26323,37 +26323,37 @@
         <v>541368.3154493226</v>
       </c>
       <c r="F2" t="n">
-        <v>541368.3154493225</v>
+        <v>541368.3154493226</v>
       </c>
       <c r="G2" t="n">
         <v>630787.5416765761</v>
       </c>
       <c r="H2" t="n">
+        <v>630787.5416765762</v>
+      </c>
+      <c r="I2" t="n">
         <v>630787.5416765761</v>
-      </c>
-      <c r="I2" t="n">
-        <v>630787.5416765762</v>
       </c>
       <c r="J2" t="n">
         <v>630787.5416765754</v>
       </c>
       <c r="K2" t="n">
-        <v>630787.5416765754</v>
+        <v>630787.541676576</v>
       </c>
       <c r="L2" t="n">
+        <v>630787.5416765757</v>
+      </c>
+      <c r="M2" t="n">
+        <v>630787.5416765757</v>
+      </c>
+      <c r="N2" t="n">
         <v>630787.5416765756</v>
       </c>
-      <c r="M2" t="n">
-        <v>630787.5416765754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>630787.5416765759</v>
-      </c>
       <c r="O2" t="n">
+        <v>630787.5416765756</v>
+      </c>
+      <c r="P2" t="n">
         <v>630787.541676576</v>
-      </c>
-      <c r="P2" t="n">
-        <v>630787.5416765759</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324348</v>
       </c>
       <c r="M3" t="n">
         <v>17695.67856363344</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750816</v>
+        <v>71148.0201975081</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
         <v>434774.7393444277</v>
@@ -26448,16 +26448,16 @@
         <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="F5" t="n">
         <v>24939.02968325744</v>
@@ -26506,7 +26506,7 @@
         <v>45042.30008022613</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="P5" t="n">
         <v>45042.30008022613</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132241.4721250071</v>
+        <v>132237.0645478589</v>
       </c>
       <c r="C6" t="n">
-        <v>132241.4721250069</v>
+        <v>132237.0645478592</v>
       </c>
       <c r="D6" t="n">
-        <v>132241.472125007</v>
+        <v>132237.064547859</v>
       </c>
       <c r="E6" t="n">
-        <v>-129234.7745533081</v>
+        <v>-129523.2236701702</v>
       </c>
       <c r="F6" t="n">
-        <v>154970.6097506909</v>
+        <v>154682.160633829</v>
       </c>
       <c r="G6" t="n">
-        <v>62887.16692067473</v>
+        <v>62887.16692067485</v>
       </c>
       <c r="H6" t="n">
+        <v>168551.2413531097</v>
+      </c>
+      <c r="I6" t="n">
         <v>168551.2413531095</v>
       </c>
-      <c r="I6" t="n">
-        <v>168551.2413531096</v>
-      </c>
       <c r="J6" t="n">
-        <v>-17953.27276994777</v>
+        <v>-17953.27276994759</v>
       </c>
       <c r="K6" t="n">
-        <v>148671.5355733046</v>
+        <v>148671.5355733052</v>
       </c>
       <c r="L6" t="n">
-        <v>43007.46114086994</v>
+        <v>43007.46114087006</v>
       </c>
       <c r="M6" t="n">
-        <v>136986.7260713385</v>
+        <v>136986.7260713389</v>
       </c>
       <c r="N6" t="n">
-        <v>154682.4046349725</v>
+        <v>154682.4046349722</v>
       </c>
       <c r="O6" t="n">
-        <v>83534.38443746444</v>
+        <v>83534.38443746403</v>
       </c>
       <c r="P6" t="n">
-        <v>154682.4046349725</v>
+        <v>154682.4046349727</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G2" t="n">
         <v>350.5301170005546</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="G3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="H3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="I3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="J3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="K3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="L3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="M3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="N3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="O3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="P3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>68.39702598806991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68.39702598806991</v>
+      </c>
+      <c r="G4" t="n">
+        <v>68.39702598806991</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68.39702598806991</v>
+      </c>
+      <c r="I4" t="n">
         <v>68.39702598806993</v>
-      </c>
-      <c r="F4" t="n">
-        <v>68.39702598806987</v>
-      </c>
-      <c r="G4" t="n">
-        <v>68.39702598806987</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68.39702598806988</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68.3970259880699</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="L4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688512</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
         <v>22.1195982045418</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688512</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688512</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="D11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="E11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="H11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I11" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="J11" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>218.4500239600112</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M11" t="n">
-        <v>214.7658150514811</v>
+        <v>209.6182687178982</v>
       </c>
       <c r="N11" t="n">
-        <v>158.7250866530123</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6878698049957</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>80.08734693460217</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.80729385644869</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="R11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="12">
@@ -28187,49 +28187,49 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175255</v>
+        <v>130.4191539456673</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S12" t="n">
-        <v>195.7351987203056</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T12" t="n">
-        <v>218.4500239600112</v>
+        <v>197.4218470422748</v>
       </c>
       <c r="U12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>218.4500239600112</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>218.4500239600112</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -28257,13 +28257,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>214.5560473978744</v>
       </c>
       <c r="G13" t="n">
-        <v>167.689771139254</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="H13" t="n">
-        <v>192.9438397387495</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
         <v>147.7494808688102</v>
@@ -28272,49 +28272,49 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K13" t="n">
-        <v>170.9697584578414</v>
+        <v>120.3352019130374</v>
       </c>
       <c r="L13" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O13" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="D14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="E14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="J14" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K14" t="n">
-        <v>157.92348741428</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>209.618268717898</v>
+        <v>214.765815051481</v>
       </c>
       <c r="N14" t="n">
-        <v>212.59031289111</v>
+        <v>187.2979931265102</v>
       </c>
       <c r="O14" t="n">
-        <v>69.63557011692927</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537015</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.4500239600112</v>
+        <v>122.1894924170728</v>
       </c>
       <c r="R14" t="n">
-        <v>218.4500239600112</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="15">
@@ -28418,40 +28418,40 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>188.0137252106036</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H15" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346598</v>
+        <v>135.5688827973807</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28460,13 +28460,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28488,13 +28488,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>203.1746735676485</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>200.3281284629342</v>
       </c>
       <c r="G16" t="n">
         <v>167.689771139254</v>
@@ -28509,7 +28509,7 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>102.5727324697714</v>
+        <v>170.9697584578413</v>
       </c>
       <c r="L16" t="n">
         <v>101.8051034503207</v>
@@ -28518,13 +28518,13 @@
         <v>172.527318357923</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O16" t="n">
-        <v>175.148814504079</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
@@ -28533,25 +28533,25 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="17">
@@ -28585,43 +28585,43 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K17" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333818</v>
+        <v>186.2637451473612</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634112</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N17" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537015</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.3286685281397</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
         <v>250.6108307898694</v>
       </c>
       <c r="S17" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
-        <v>319.8391528055693</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28661,34 +28661,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R18" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S18" t="n">
         <v>164.5345187941275</v>
@@ -28752,16 +28752,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q19" t="n">
         <v>130.9853613927381</v>
@@ -28816,7 +28816,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
         <v>188.0507309546109</v>
@@ -28825,40 +28825,40 @@
         <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634112</v>
+        <v>214.765815051481</v>
       </c>
       <c r="N20" t="n">
-        <v>144.1932869030401</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O20" t="n">
-        <v>175.9791825309053</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P20" t="n">
-        <v>229.7915656417714</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.0404603241948</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>182.2138048017995</v>
+        <v>247.8473145883312</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T20" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>319.8391528055693</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28898,34 +28898,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R21" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S21" t="n">
         <v>164.5345187941275</v>
@@ -28989,16 +28989,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q22" t="n">
         <v>130.9853613927381</v>
@@ -29056,34 +29056,34 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
-        <v>253.6842407411426</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K23" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M23" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N23" t="n">
-        <v>212.59031289111</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537015</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.6434343361249</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R23" t="n">
-        <v>250.6108307898694</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S23" t="n">
         <v>195.7140436393247</v>
@@ -29092,7 +29092,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4421268174995</v>
+        <v>317.0756366040312</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -29135,34 +29135,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R24" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S24" t="n">
         <v>164.5345187941275</v>
@@ -29226,16 +29226,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q25" t="n">
         <v>130.9853613927381</v>
@@ -29293,7 +29293,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I26" t="n">
-        <v>221.0151182874286</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J26" t="n">
         <v>221.0151182874286</v>
@@ -29305,7 +29305,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M26" t="n">
-        <v>221.0151182874286</v>
+        <v>5.839521118667035</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
@@ -29317,13 +29317,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Q26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>175.8519985091067</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -29372,34 +29372,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N27" t="n">
-        <v>15.50967089165919</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.4354315864262</v>
       </c>
       <c r="R27" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
@@ -29417,10 +29417,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="X27" t="n">
-        <v>221.0151182874286</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>221.0151182874286</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>221.0151182874286</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>221.0151182874286</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>177.2478049842576</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>167.689771139254</v>
@@ -29454,28 +29454,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>109.6934180900282</v>
+        <v>74.7117271143959</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.9853613927381</v>
+        <v>193.8608610829103</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
@@ -29533,34 +29533,34 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J29" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
-        <v>221.0151182874286</v>
+        <v>158.5158245615827</v>
       </c>
       <c r="M29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0151182874286</v>
+        <v>56.57842554524638</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>215.4498923533265</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29609,40 +29609,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290983</v>
+        <v>105.8962668943108</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>124.2742070509439</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T30" t="n">
-        <v>197.4218470422748</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U30" t="n">
         <v>221.0151182874286</v>
@@ -29694,28 +29694,28 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>51.79394115676487</v>
       </c>
       <c r="L31" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>172.9932500969765</v>
       </c>
       <c r="P31" t="n">
-        <v>90.24124891719936</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R31" t="n">
-        <v>221.0151182874286</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S31" t="n">
         <v>218.8751278244474</v>
@@ -29767,7 +29767,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>221.0151182874286</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J32" t="n">
         <v>221.0151182874286</v>
@@ -29776,16 +29776,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L32" t="n">
-        <v>159.5754064333818</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>221.0151182874286</v>
@@ -29794,10 +29794,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
-        <v>187.4177133340158</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29846,37 +29846,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>56.6387964431493</v>
       </c>
       <c r="K33" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290983</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>124.2742070509439</v>
+        <v>79.89687860438909</v>
       </c>
       <c r="S33" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406823</v>
       </c>
       <c r="T33" t="n">
         <v>197.4218470422748</v>
@@ -29931,22 +29931,22 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698532</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N34" t="n">
-        <v>92.36423822016633</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>29.96492810421785</v>
       </c>
       <c r="Q34" t="n">
         <v>130.9853613927381</v>
@@ -30013,7 +30013,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L35" t="n">
-        <v>223.2940340984908</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M35" t="n">
         <v>243.1347164919704</v>
@@ -30022,7 +30022,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O35" t="n">
-        <v>207.3643447761572</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>243.1347164919704</v>
@@ -30031,10 +30031,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>243.1347164919704</v>
+        <v>242.8664153685856</v>
       </c>
       <c r="S35" t="n">
-        <v>243.1347164919704</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T35" t="n">
         <v>243.1347164919704</v>
@@ -30083,34 +30083,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30122,7 +30122,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W36" t="n">
         <v>243.1347164919704</v>
@@ -30131,7 +30131,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>210.6649584362675</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -30165,34 +30165,34 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6934180900282</v>
+        <v>74.7117271143959</v>
       </c>
       <c r="K37" t="n">
-        <v>89.16777553385627</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q37" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R37" t="n">
-        <v>164.4066131828346</v>
+        <v>237.7555845778351</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T37" t="n">
         <v>227.4786990669493</v>
@@ -30241,7 +30241,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I38" t="n">
-        <v>243.1347164919704</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J38" t="n">
         <v>243.1347164919704</v>
@@ -30250,7 +30250,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L38" t="n">
-        <v>243.1347164919704</v>
+        <v>117.7664261054514</v>
       </c>
       <c r="M38" t="n">
         <v>243.1347164919704</v>
@@ -30320,46 +30320,46 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N39" t="n">
-        <v>40.22976827821073</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T39" t="n">
-        <v>204.4156540599563</v>
+        <v>197.4218470422748</v>
       </c>
       <c r="U39" t="n">
         <v>224.641496683099</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W39" t="n">
         <v>243.1347164919704</v>
@@ -30390,10 +30390,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>168.3226361196116</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>243.1347164919704</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H40" t="n">
         <v>159.857510195687</v>
@@ -30402,34 +30402,34 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6934180900282</v>
+        <v>74.7117271143959</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.9853613927381</v>
+        <v>204.3343327877386</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30481,7 +30481,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
-        <v>209.2822844427563</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K41" t="n">
         <v>243.1347164919704</v>
@@ -30499,16 +30499,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
+        <v>32.9330306575613</v>
+      </c>
+      <c r="Q41" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>168.6434343361249</v>
       </c>
       <c r="R41" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="S41" t="n">
-        <v>243.1347164919704</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T41" t="n">
         <v>243.1347164919704</v>
@@ -30539,7 +30539,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>178.0193909450825</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -30557,37 +30557,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346598</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725118</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S42" t="n">
-        <v>164.5345187941275</v>
+        <v>171.528325811809</v>
       </c>
       <c r="T42" t="n">
         <v>197.4218470422748</v>
@@ -30639,31 +30639,31 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6934180900282</v>
+        <v>74.7117271143959</v>
       </c>
       <c r="K43" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>97.14027360518139</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.9435474705795</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R43" t="n">
-        <v>164.4066131828346</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S43" t="n">
         <v>218.8751278244474</v>
@@ -30681,7 +30681,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X43" t="n">
-        <v>243.1347164919704</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>243.1347164919704</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30730,7 +30730,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919704</v>
+        <v>205.2114940939278</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919704</v>
@@ -30739,7 +30739,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.1347164919704</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R44" t="n">
         <v>243.1347164919704</v>
@@ -30776,7 +30776,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>178.0193909450825</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.9084229006569</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955192</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P45" t="n">
-        <v>19.68509414589973</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30833,7 +30833,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W45" t="n">
         <v>243.1347164919704</v>
@@ -30876,28 +30876,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6934180900282</v>
+        <v>74.7117271143959</v>
       </c>
       <c r="K46" t="n">
-        <v>200.1812925322949</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698532</v>
+        <v>201.7388524323766</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O11" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R12" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O14" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R15" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O17" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R18" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O20" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R21" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O23" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R24" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O26" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R27" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O29" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R30" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O32" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R33" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O35" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R36" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O38" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R39" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O41" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R42" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115715</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457607</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317969</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O44" t="n">
-        <v>75.0549123192188</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768634</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967787</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191137</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221531</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169805</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608213</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R45" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516907</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938698</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593422</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388658</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947718</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583153</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.39929300540022</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>60.52653654573124</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>68.39702598806993</v>
+        <v>63.24947965448711</v>
       </c>
       <c r="N11" t="n">
-        <v>14.53179974997224</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.80658962388623</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821167</v>
+        <v>36.2362191582116</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068649</v>
+        <v>22.73598032068639</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>52.22885684391483</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35513,10 +35513,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>31.20067992617807</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>21.0281769177364</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.3663324693274</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.11347102880887</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35553,13 +35553,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>50.76025282075711</v>
       </c>
       <c r="H13" t="n">
-        <v>33.08632954306254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>68.39702598806993</v>
+        <v>17.76246944326598</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.04341077717653</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540028</v>
+        <v>30.39929300540022</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>60.52653654573122</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>63.24947965448682</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N14" t="n">
-        <v>68.39702598806987</v>
+        <v>43.1047062234702</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388625</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821164</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068647</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>52.22885684391483</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>54.16910705312917</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54.16910705312972</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,19 +35805,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35875,19 +35875,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451692</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.68833871397953</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.68523419201476</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,7 +36112,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -36127,34 +36127,34 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="O20" t="n">
-        <v>26.68833871397954</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.63350978653172</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281771</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>258.1636583777747</v>
+        <v>82.30317859881801</v>
       </c>
       <c r="K26" t="n">
-        <v>340.0467610051685</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404683</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401738</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438852</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="O26" t="n">
-        <v>71.72427447050285</v>
+        <v>71.72427447050298</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320691</v>
+        <v>135.5679061784977</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.1792742376045</v>
+        <v>52.164155950176</v>
       </c>
       <c r="R26" t="n">
         <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810389</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.47987289876191</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36713,10 +36713,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>16.55348867895034</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.34396686884259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>72.00955177290925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>74.04049411422943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31.08878357445307</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>114.2633297714196</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>62.87549969017216</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281771</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J29" t="n">
-        <v>258.1636583777747</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>400.2028599471601</v>
+        <v>63.09163087314873</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404683</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M29" t="n">
-        <v>74.64632922401738</v>
+        <v>74.64632922401749</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>76.82183138438863</v>
       </c>
       <c r="O29" t="n">
-        <v>314.97035113443</v>
+        <v>303.3197702415759</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.16415595017593</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562911</v>
       </c>
       <c r="S29" t="n">
-        <v>19.73584871400176</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36926,19 +36926,19 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>20.78405720140103</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>23.5932712451538</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>66.24146158096748</v>
       </c>
       <c r="P31" t="n">
-        <v>120.5303243569977</v>
+        <v>110.8973678806243</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>56.60850510459402</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281771</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>258.1636583777747</v>
@@ -37072,28 +37072,28 @@
         <v>400.2028599471601</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>395.1249416695779</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>74.64632922401749</v>
       </c>
       <c r="N32" t="n">
-        <v>76.82183138438852</v>
+        <v>76.82183138438863</v>
       </c>
       <c r="O32" t="n">
-        <v>206.5526962080917</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>394.2912351320691</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376045</v>
+        <v>52.37168395130374</v>
       </c>
       <c r="R32" t="n">
-        <v>73.54898520011804</v>
+        <v>38.80131348562911</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37169,10 +37169,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N34" t="n">
-        <v>177.1388294615917</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>60.25400354401625</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J35" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769043</v>
+        <v>85.21122907769053</v>
       </c>
       <c r="L35" t="n">
-        <v>63.71862766510905</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855918</v>
+        <v>274.6994725172801</v>
       </c>
       <c r="N35" t="n">
-        <v>98.94142958893032</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O35" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826895</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.2988724421463</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R35" t="n">
-        <v>129.2659883580726</v>
+        <v>60.65261056678607</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264569</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>22.11959820454179</v>
@@ -37418,7 +37418,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -37427,7 +37427,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.993807017681495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.60856006252349</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>73.34897139500053</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>24.25958866752297</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735951</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>280.2832565823165</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769043</v>
+        <v>85.21122907769053</v>
       </c>
       <c r="L38" t="n">
-        <v>179.9328695938694</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>364.9110552725996</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893032</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504465</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826895</v>
+        <v>223.7258313112704</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584548</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017087</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T38" t="n">
         <v>22.11959820454179</v>
@@ -37649,13 +37649,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>6.993807017681495</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37686,10 +37686,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>22.16361470980707</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>75.44494535271642</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37719,13 +37719,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>73.34897139500053</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>24.25958866752297</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J41" t="n">
-        <v>246.4308245331024</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K41" t="n">
-        <v>218.6613713966148</v>
+        <v>85.21122907769053</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858861</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855915</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893029</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O41" t="n">
-        <v>364.9110552725996</v>
+        <v>93.84387267504478</v>
       </c>
       <c r="P41" t="n">
-        <v>81.74017683826892</v>
+        <v>135.4252633214823</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R41" t="n">
-        <v>129.2659883580726</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264567</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37835,7 +37835,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>6.993807017681523</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.224439328366586</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37956,16 +37956,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.9581860778414</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.72810330913585</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>15.65601742502103</v>
+        <v>15.65601742502106</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.99435655966113</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J44" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K44" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858864</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="M44" t="n">
-        <v>96.76592742855918</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N44" t="n">
-        <v>98.94142958893032</v>
+        <v>61.01820719088779</v>
       </c>
       <c r="O44" t="n">
-        <v>354.5232136384133</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826895</v>
+        <v>267.3261498165591</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584548</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017087</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T44" t="n">
         <v>22.11959820454179</v>
@@ -38072,7 +38072,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>6.993807017681495</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.60856006252349</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
